--- a/data/trans_orig/P6711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>18702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11273</v>
+        <v>10991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28360</v>
+        <v>28549</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1021846027905735</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06159465173238376</v>
+        <v>0.06005188694550792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1549588061090848</v>
+        <v>0.1559924613125379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -763,19 +763,19 @@
         <v>15940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9181</v>
+        <v>8410</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24619</v>
+        <v>23997</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.116230237634227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06694375083827485</v>
+        <v>0.06132345692256413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1795208962857864</v>
+        <v>0.1749824086687607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -784,19 +784,19 @@
         <v>34641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23435</v>
+        <v>24352</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47682</v>
+        <v>47727</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1082010455983295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07319737597770917</v>
+        <v>0.07606160204536322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1489317449330075</v>
+        <v>0.1490731358496892</v>
       </c>
     </row>
     <row r="5">
@@ -816,16 +816,16 @@
         <v>931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7614</v>
+        <v>7980</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01592995133507204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005084363155678233</v>
+        <v>0.005086832710982884</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0416000863304885</v>
+        <v>0.04360347025775008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -834,19 +834,19 @@
         <v>11175</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5366</v>
+        <v>5204</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20703</v>
+        <v>20033</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08148745954629416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0391245980079251</v>
+        <v>0.03794434476318169</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1509640837416407</v>
+        <v>0.1460814803782845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -855,19 +855,19 @@
         <v>14091</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7836</v>
+        <v>7336</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25205</v>
+        <v>23905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04401148721168145</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02447586400039506</v>
+        <v>0.0229126667189399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0787279253811396</v>
+        <v>0.07466501540149117</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>19331</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11802</v>
+        <v>11774</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30195</v>
+        <v>29483</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.105621683497663</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06448701960640991</v>
+        <v>0.0643332609225854</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1649815025961683</v>
+        <v>0.1610953799219917</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -905,19 +905,19 @@
         <v>13620</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7319</v>
+        <v>7556</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23088</v>
+        <v>21411</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09931802551066057</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05337090573172589</v>
+        <v>0.05509812079681718</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1683523301423178</v>
+        <v>0.156128346843426</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -926,19 +926,19 @@
         <v>32951</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22356</v>
+        <v>22455</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44835</v>
+        <v>46236</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1029215137879549</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06982761929402075</v>
+        <v>0.07013574382022977</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1400398633043859</v>
+        <v>0.1444155492909939</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>34155</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25181</v>
+        <v>24007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46238</v>
+        <v>46153</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1866184516664202</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1375890947716525</v>
+        <v>0.1311712218165286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2526430015750575</v>
+        <v>0.252178796489952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -976,19 +976,19 @@
         <v>16278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9311</v>
+        <v>9809</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25555</v>
+        <v>26102</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1186991292079889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06789513743343545</v>
+        <v>0.07152833302518233</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1863461182754367</v>
+        <v>0.1903321025798469</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -997,19 +997,19 @@
         <v>50433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37460</v>
+        <v>37579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65416</v>
+        <v>64001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1575252334771884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1170039446855139</v>
+        <v>0.117375645793946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2043242950306362</v>
+        <v>0.199903035854152</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>107916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94490</v>
+        <v>93713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121375</v>
+        <v>121524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5896453107102712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5162860850317039</v>
+        <v>0.5120426083953911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6631845825184337</v>
+        <v>0.6640012449787567</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -1047,19 +1047,19 @@
         <v>80126</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67073</v>
+        <v>68488</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92469</v>
+        <v>91290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5842651481008293</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.48909131076258</v>
+        <v>0.499403774709046</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6742749604001353</v>
+        <v>0.665675306563526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>181</v>
@@ -1068,19 +1068,19 @@
         <v>188042</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>170566</v>
+        <v>170519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>205617</v>
+        <v>205456</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5873407199248457</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5327547957517618</v>
+        <v>0.5326077928348261</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6422366689891691</v>
+        <v>0.6417333010792734</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>112457</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93312</v>
+        <v>93262</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134305</v>
+        <v>136581</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.123340174424177</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1023424480833616</v>
+        <v>0.1022873632907586</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1473023071073757</v>
+        <v>0.1497982911226818</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1193,19 +1193,19 @@
         <v>75263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59892</v>
+        <v>59581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92704</v>
+        <v>93140</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1316742652178917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1047818853249793</v>
+        <v>0.1042368708664866</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1621871374007509</v>
+        <v>0.1629494482468486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -1214,19 +1214,19 @@
         <v>187721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163435</v>
+        <v>163323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>216741</v>
+        <v>217843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1265515965185139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1101796931358605</v>
+        <v>0.1101039566817972</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1461154565952306</v>
+        <v>0.1468585826016488</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>56376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42224</v>
+        <v>43062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72492</v>
+        <v>73893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06183134125766085</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04631066917906659</v>
+        <v>0.04722975651608331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07950767041588841</v>
+        <v>0.08104406914961289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -1264,19 +1264,19 @@
         <v>48826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35927</v>
+        <v>36716</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65013</v>
+        <v>65325</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08542144678458555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06285495510193419</v>
+        <v>0.06423580553281953</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1137415126605844</v>
+        <v>0.1142869832922727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -1285,19 +1285,19 @@
         <v>105201</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87689</v>
+        <v>84405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>127937</v>
+        <v>125508</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07092144934168117</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05911515655297077</v>
+        <v>0.05690121790918787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08624873813065949</v>
+        <v>0.08461096805393148</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>170155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>145724</v>
+        <v>146698</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>194300</v>
+        <v>194987</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1866221173772817</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1598259322296415</v>
+        <v>0.1608942141267188</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2131035477591597</v>
+        <v>0.2138564339366884</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -1335,19 +1335,19 @@
         <v>91538</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73862</v>
+        <v>74577</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>111184</v>
+        <v>112044</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1601461057083582</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1292215860198851</v>
+        <v>0.1304732463775323</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1945172648025399</v>
+        <v>0.1960214775629622</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>249</v>
@@ -1356,19 +1356,19 @@
         <v>261693</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>234235</v>
+        <v>231071</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>293132</v>
+        <v>291449</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1764199668430415</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1579093537392568</v>
+        <v>0.1557762828851291</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1976147777621983</v>
+        <v>0.1964798150761937</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>178620</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154141</v>
+        <v>157111</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>203615</v>
+        <v>202808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.195905942549229</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1690584480105747</v>
+        <v>0.1723154904384907</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2233194896258254</v>
+        <v>0.2224347760512397</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>117</v>
@@ -1406,19 +1406,19 @@
         <v>121865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104711</v>
+        <v>103106</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144110</v>
+        <v>142468</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2132038483082109</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1831927312713542</v>
+        <v>0.1803848594965061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2521228138827039</v>
+        <v>0.2492492639933255</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>292</v>
@@ -1427,19 +1427,19 @@
         <v>300485</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>271293</v>
+        <v>272119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>330791</v>
+        <v>332353</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.202571441895846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1828916918958938</v>
+        <v>0.1834485829412641</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2230024988960617</v>
+        <v>0.2240554556383239</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>394156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363157</v>
+        <v>362800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>426226</v>
+        <v>424675</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4323004243916514</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3983017301306301</v>
+        <v>0.3979098577009233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4674745197232942</v>
+        <v>0.4657725924206547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>218</v>
@@ -1477,19 +1477,19 @@
         <v>234096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>210420</v>
+        <v>209615</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>259701</v>
+        <v>260524</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4095543339809536</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3681326180906601</v>
+        <v>0.3667239496537134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4543497070321622</v>
+        <v>0.4557901003272656</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>586</v>
@@ -1498,19 +1498,19 @@
         <v>628252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>590865</v>
+        <v>592906</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>667316</v>
+        <v>670092</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4235355454009174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3983308287049657</v>
+        <v>0.399706917821344</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4498706060066378</v>
+        <v>0.4517420173337919</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>26948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17844</v>
+        <v>18200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37853</v>
+        <v>37825</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08520776232856482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05642118225376931</v>
+        <v>0.05754787242167308</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1196911092635143</v>
+        <v>0.1196013403870847</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1623,19 +1623,19 @@
         <v>39792</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28634</v>
+        <v>28645</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53518</v>
+        <v>53711</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1709605273048878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1230224531147446</v>
+        <v>0.1230698626040281</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2299322544359832</v>
+        <v>0.230762929252536</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -1644,19 +1644,19 @@
         <v>66739</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52198</v>
+        <v>52170</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>84331</v>
+        <v>83962</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.12156282610651</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09507676611206872</v>
+        <v>0.09502467407538603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1536057638009741</v>
+        <v>0.1529324127295779</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>25889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17863</v>
+        <v>17675</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37876</v>
+        <v>39076</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08186095847683628</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0564822364001602</v>
+        <v>0.05588903271676314</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1197624443486199</v>
+        <v>0.1235573415101051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1694,19 +1694,19 @@
         <v>12948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7314</v>
+        <v>6929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21695</v>
+        <v>21420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05562943410246664</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03142166115244482</v>
+        <v>0.02977110016408912</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09321092657892385</v>
+        <v>0.09202618449739709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -1715,19 +1715,19 @@
         <v>38837</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26978</v>
+        <v>25690</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53484</v>
+        <v>51466</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07074004894247618</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04913872552086878</v>
+        <v>0.04679372111077074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09741861011534909</v>
+        <v>0.09374304150603167</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>75101</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60424</v>
+        <v>59098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93677</v>
+        <v>91223</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2374673631876935</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1910590323309919</v>
+        <v>0.18686858353994</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.296206822232851</v>
+        <v>0.2884461554700741</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -1765,19 +1765,19 @@
         <v>33383</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22920</v>
+        <v>23311</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45232</v>
+        <v>44950</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.143426969872347</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09847416544080738</v>
+        <v>0.100151501386759</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1943310653003331</v>
+        <v>0.1931215032281583</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>96</v>
@@ -1786,19 +1786,19 @@
         <v>108484</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89096</v>
+        <v>89894</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>129650</v>
+        <v>129240</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1975987420694539</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1622847689534638</v>
+        <v>0.1637382593411328</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2361510306566934</v>
+        <v>0.2354045661733093</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>49627</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37287</v>
+        <v>36738</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62414</v>
+        <v>63670</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1569201346602876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1179023658058934</v>
+        <v>0.116165526967219</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.197353335222301</v>
+        <v>0.2013240819591392</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1836,19 +1836,19 @@
         <v>39878</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29113</v>
+        <v>29073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52624</v>
+        <v>54052</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1713299482291046</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.125079439468844</v>
+        <v>0.1249094476881644</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2260918967060074</v>
+        <v>0.23222721285141</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -1857,19 +1857,19 @@
         <v>89505</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72370</v>
+        <v>71886</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109580</v>
+        <v>107865</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1630292052129081</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.131818462853928</v>
+        <v>0.1309373507988335</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1995957234890007</v>
+        <v>0.1964702102445734</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>138693</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119768</v>
+        <v>121606</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157205</v>
+        <v>157257</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4385437813466178</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3787046844002548</v>
+        <v>0.3845149495776966</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4970795930811722</v>
+        <v>0.4972439908987313</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -1907,19 +1907,19 @@
         <v>106754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90817</v>
+        <v>90400</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122561</v>
+        <v>122887</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4586531204911939</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3901849249109586</v>
+        <v>0.3883933118780762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5265646269816316</v>
+        <v>0.5279692751574225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>216</v>
@@ -1928,19 +1928,19 @@
         <v>245446</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>221345</v>
+        <v>217803</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271967</v>
+        <v>269004</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4470691776686518</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4031705757913663</v>
+        <v>0.3967178931916777</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4953757926250177</v>
+        <v>0.4899792126582531</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>158106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>133329</v>
+        <v>134917</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185247</v>
+        <v>183214</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1120495554752068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09449011492143573</v>
+        <v>0.09561536063809173</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1312843072585512</v>
+        <v>0.1298430591634637</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -2053,19 +2053,19 @@
         <v>130995</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>111598</v>
+        <v>109376</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156011</v>
+        <v>155588</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1391370486943885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1185340541031372</v>
+        <v>0.1161745818838485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1657078720332323</v>
+        <v>0.1652585169474092</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>267</v>
@@ -2074,19 +2074,19 @@
         <v>289101</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>256982</v>
+        <v>258058</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>320932</v>
+        <v>324528</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1228900094770384</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1092369033157632</v>
+        <v>0.1096940040159558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1364205100436619</v>
+        <v>0.137949174294195</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>85180</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>67146</v>
+        <v>68697</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>103725</v>
+        <v>104076</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06036697446246611</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04758618007206331</v>
+        <v>0.04868513057356305</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07350960362145771</v>
+        <v>0.0737587662681779</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>65</v>
@@ -2124,19 +2124,19 @@
         <v>72949</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>55255</v>
+        <v>56355</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>90953</v>
+        <v>91773</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07748318211511963</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05868898350777825</v>
+        <v>0.0598574593598124</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09660603378748875</v>
+        <v>0.0974768937294415</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>146</v>
@@ -2145,19 +2145,19 @@
         <v>158129</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>134971</v>
+        <v>134235</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>185554</v>
+        <v>187168</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06721690554479288</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05737289836940627</v>
+        <v>0.05706008766898174</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07887458738111451</v>
+        <v>0.07956041709244606</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>264587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>233884</v>
+        <v>238443</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>297104</v>
+        <v>298549</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1875119737444475</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1657529655343115</v>
+        <v>0.1689839706687356</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2105568562876648</v>
+        <v>0.2115810250228699</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>129</v>
@@ -2195,19 +2195,19 @@
         <v>138541</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>116775</v>
+        <v>116929</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>164300</v>
+        <v>163392</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1471523605990832</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1240334338900341</v>
+        <v>0.1241966072990561</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1745114518819991</v>
+        <v>0.1735475453118922</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>375</v>
@@ -2216,19 +2216,19 @@
         <v>403128</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>366932</v>
+        <v>363869</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>442248</v>
+        <v>436961</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1713599981336436</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1559740069119684</v>
+        <v>0.1546720547192575</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1879888887603044</v>
+        <v>0.1857416869771202</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>262402</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>230568</v>
+        <v>232613</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>293823</v>
+        <v>291409</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1859633955095679</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1634026422233765</v>
+        <v>0.164852311002233</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2082317185749453</v>
+        <v>0.2065208559578826</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>167</v>
@@ -2266,19 +2266,19 @@
         <v>178021</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155187</v>
+        <v>154202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>203024</v>
+        <v>203596</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1890858555948135</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1648322550673167</v>
+        <v>0.1637867874563604</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2156424035200344</v>
+        <v>0.2162499780937121</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>422</v>
@@ -2287,19 +2287,19 @@
         <v>440423</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>403438</v>
+        <v>401312</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>479744</v>
+        <v>480539</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1872130085561783</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1714916239955211</v>
+        <v>0.170588011557772</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.203927535385586</v>
+        <v>0.2042654101876192</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>640764</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>601091</v>
+        <v>604077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>677949</v>
+        <v>678288</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4541081008083117</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4259919979977907</v>
+        <v>0.4281076376782149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4804610535033272</v>
+        <v>0.4807013895546858</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>388</v>
@@ -2337,19 +2337,19 @@
         <v>420976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>389538</v>
+        <v>389575</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>451969</v>
+        <v>453170</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4471415529965951</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4137494146291867</v>
+        <v>0.4137890307882277</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4800612377489174</v>
+        <v>0.4813366839903557</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>983</v>
@@ -2358,19 +2358,19 @@
         <v>1061740</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1010836</v>
+        <v>1014237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1109138</v>
+        <v>1112404</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4513200782883469</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4296818836249945</v>
+        <v>0.4311273454922899</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4714678214050108</v>
+        <v>0.4728561179746135</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>22514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15510</v>
+        <v>14636</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33935</v>
+        <v>34061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1593380027590639</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1097655835953971</v>
+        <v>0.1035805270859053</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2401638125507102</v>
+        <v>0.2410562965314443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2722,19 +2722,19 @@
         <v>13074</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7539</v>
+        <v>7900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20172</v>
+        <v>20629</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1891261920015247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1090537586596179</v>
+        <v>0.1142737464203688</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2918066344122291</v>
+        <v>0.298412875868373</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2743,19 +2743,19 @@
         <v>35588</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25315</v>
+        <v>25029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47121</v>
+        <v>48567</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1691238459539043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1203042683146143</v>
+        <v>0.1189428899083402</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2239306246750349</v>
+        <v>0.2308017693772549</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>20020</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12739</v>
+        <v>11990</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30132</v>
+        <v>29861</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1416875640429882</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09015572103181042</v>
+        <v>0.08485481467037552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2132479842571961</v>
+        <v>0.2113300476507559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2793,19 +2793,19 @@
         <v>8828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4734</v>
+        <v>4150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15901</v>
+        <v>15022</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1277075198768413</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06848447587835398</v>
+        <v>0.06003993284678338</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2300165470728359</v>
+        <v>0.2173038203156872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -2814,19 +2814,19 @@
         <v>28848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20083</v>
+        <v>19943</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42642</v>
+        <v>39802</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1370949210006965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09544143549580555</v>
+        <v>0.09477422644915731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2026443555472695</v>
+        <v>0.1891475948315685</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>30680</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21976</v>
+        <v>22699</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42570</v>
+        <v>42034</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2171283793442587</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1555294187444876</v>
+        <v>0.1606434381642195</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3012739403451461</v>
+        <v>0.2974851982949542</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -2864,19 +2864,19 @@
         <v>19301</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12747</v>
+        <v>12259</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27649</v>
+        <v>27335</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2792102343916981</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1843939231802479</v>
+        <v>0.1773310174943013</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.399971814432621</v>
+        <v>0.3954243475739433</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -2885,19 +2885,19 @@
         <v>49981</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39513</v>
+        <v>39155</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65435</v>
+        <v>63419</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2375231503655559</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1877748873593138</v>
+        <v>0.1860739424125332</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3109620806433879</v>
+        <v>0.3013821105196616</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>27754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18359</v>
+        <v>18256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38868</v>
+        <v>37351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1964191169766116</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1299280201256306</v>
+        <v>0.1291983727412309</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2750764490812366</v>
+        <v>0.2643426944481116</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2935,19 +2935,19 @@
         <v>14755</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8891</v>
+        <v>7853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21834</v>
+        <v>21953</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2134383326509317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1286159636642477</v>
+        <v>0.113601040039435</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3158486048683381</v>
+        <v>0.3175710269690016</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -2956,19 +2956,19 @@
         <v>42508</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31789</v>
+        <v>31750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56334</v>
+        <v>53846</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2020101710192879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1510695058744904</v>
+        <v>0.1508829347328524</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2677121802410186</v>
+        <v>0.2558911466955479</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>40331</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29881</v>
+        <v>29651</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51968</v>
+        <v>52061</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2854269368770775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2114733939033429</v>
+        <v>0.2098452638786877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3677852887312986</v>
+        <v>0.3684438289182208</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -3006,19 +3006,19 @@
         <v>13170</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7941</v>
+        <v>7685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20592</v>
+        <v>20205</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1905177210790042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1148805754971558</v>
+        <v>0.1111655268153981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2978878127738988</v>
+        <v>0.2922866755625357</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>50</v>
@@ -3027,19 +3027,19 @@
         <v>53501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>39868</v>
+        <v>41913</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66360</v>
+        <v>66603</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2542479116605554</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1894646219870746</v>
+        <v>0.1991805188011129</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3153611134855928</v>
+        <v>0.3165151362520863</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>131903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111375</v>
+        <v>111232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154499</v>
+        <v>155901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1428759288897741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.120639691766421</v>
+        <v>0.1204847122745582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1673516183913548</v>
+        <v>0.1688701848079849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>113</v>
@@ -3152,19 +3152,19 @@
         <v>118451</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99883</v>
+        <v>98039</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138809</v>
+        <v>138729</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1820809111607619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1535386382441412</v>
+        <v>0.1507032570928824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2133747155365813</v>
+        <v>0.2132507116786979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>233</v>
@@ -3173,19 +3173,19 @@
         <v>250355</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>221895</v>
+        <v>221513</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>281826</v>
+        <v>281480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.159082207012377</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1409982198992075</v>
+        <v>0.1407555892070689</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1790796418173824</v>
+        <v>0.1788600001872285</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>126627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104831</v>
+        <v>108159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149799</v>
+        <v>152271</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1371606422387616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1135512557687596</v>
+        <v>0.1171566166169247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1622601857365722</v>
+        <v>0.16493822319877</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -3223,19 +3223,19 @@
         <v>94935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78726</v>
+        <v>77088</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115650</v>
+        <v>115592</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1459318990686957</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1210156175877096</v>
+        <v>0.1184983072869525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.17777527247821</v>
+        <v>0.1776850054562863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>210</v>
@@ -3244,19 +3244,19 @@
         <v>221562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>196872</v>
+        <v>196077</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>250131</v>
+        <v>251088</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1407864423140721</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1250980640269449</v>
+        <v>0.1245925242735534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1589400708066699</v>
+        <v>0.1595478568138166</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>218939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>192895</v>
+        <v>194940</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>246658</v>
+        <v>248935</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2371521916176712</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2089411774756631</v>
+        <v>0.2111563913509895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2671769806313296</v>
+        <v>0.2696431188169387</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>154</v>
@@ -3294,19 +3294,19 @@
         <v>153885</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>132287</v>
+        <v>132391</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>176784</v>
+        <v>176168</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.236547871642029</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2033492291925595</v>
+        <v>0.203507703956188</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2717488773423996</v>
+        <v>0.2708014926811723</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>363</v>
@@ -3315,19 +3315,19 @@
         <v>372824</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>341655</v>
+        <v>340220</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>412453</v>
+        <v>408541</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2369023821028343</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2170969105860407</v>
+        <v>0.2161849970215923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2620840067106306</v>
+        <v>0.259597863356554</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>210214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185623</v>
+        <v>183785</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>239425</v>
+        <v>237462</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.227701322900675</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2010644673745701</v>
+        <v>0.1990735835438013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2593421364880932</v>
+        <v>0.2572159812072258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -3365,19 +3365,19 @@
         <v>135035</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114525</v>
+        <v>116162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>156401</v>
+        <v>157979</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2075731651141314</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1760446580341249</v>
+        <v>0.1785615147564367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2404159053399581</v>
+        <v>0.2428412537570148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>332</v>
@@ -3386,19 +3386,19 @@
         <v>345250</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>314512</v>
+        <v>311850</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>383767</v>
+        <v>375171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2193808874792374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1998496688597072</v>
+        <v>0.198158112696528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2438561981754319</v>
+        <v>0.2383939647016962</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>235518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>208937</v>
+        <v>205574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>263731</v>
+        <v>260529</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2551099143531181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2263177987903235</v>
+        <v>0.2226749126053185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.285670466865641</v>
+        <v>0.2822016570484964</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>144</v>
@@ -3436,19 +3436,19 @@
         <v>148237</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129911</v>
+        <v>126844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>170154</v>
+        <v>170096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.227866153014382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1996959489546694</v>
+        <v>0.1949818807624174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2615571772431338</v>
+        <v>0.2614670329596519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>361</v>
@@ -3457,19 +3457,19 @@
         <v>383755</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>344218</v>
+        <v>347265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>415632</v>
+        <v>420862</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2438480810914792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2187256649937303</v>
+        <v>0.2206614464041418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2641040048869699</v>
+        <v>0.2674268528263375</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>54561</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41875</v>
+        <v>41175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70870</v>
+        <v>69460</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1565862824677079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1201780995399032</v>
+        <v>0.1181712558148686</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.203394281429125</v>
+        <v>0.1993470800535686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -3582,19 +3582,19 @@
         <v>62876</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49165</v>
+        <v>49974</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78045</v>
+        <v>79932</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.203842746408733</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1593921704081065</v>
+        <v>0.1620148482150951</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2530206236795985</v>
+        <v>0.2591368652477227</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -3603,19 +3603,19 @@
         <v>117437</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100202</v>
+        <v>99525</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139123</v>
+        <v>138259</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1787762674283024</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1525403731076968</v>
+        <v>0.1515088300818319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2117897291671947</v>
+        <v>0.2104743699910462</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>34236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24507</v>
+        <v>24356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46484</v>
+        <v>47067</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09825666684898313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07033245713122274</v>
+        <v>0.06990173434964027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1334079075824392</v>
+        <v>0.135080347806898</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -3653,19 +3653,19 @@
         <v>39659</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29925</v>
+        <v>29013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54003</v>
+        <v>52464</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1285731313897537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09701783798708837</v>
+        <v>0.09405917870559403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1750763356351398</v>
+        <v>0.1700859971432485</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -3674,19 +3674,19 @@
         <v>73895</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>57066</v>
+        <v>57424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>91783</v>
+        <v>90174</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1124922197472625</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08687236865539255</v>
+        <v>0.08741757600460222</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1397226818560251</v>
+        <v>0.1372740244715943</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>72157</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56852</v>
+        <v>58568</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90284</v>
+        <v>89669</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2070858976465914</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1631633470445919</v>
+        <v>0.1680877692979938</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2591098864321099</v>
+        <v>0.2573446256512835</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>58</v>
@@ -3724,19 +3724,19 @@
         <v>60172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47360</v>
+        <v>47004</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74504</v>
+        <v>75359</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1950776486308183</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1535417064241119</v>
+        <v>0.1523877913838958</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2415408151816425</v>
+        <v>0.2443120608586672</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>123</v>
@@ -3745,19 +3745,19 @@
         <v>132329</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>110625</v>
+        <v>113797</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155124</v>
+        <v>153860</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2014472433157126</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1684072700493763</v>
+        <v>0.1732352741628179</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.236149153095376</v>
+        <v>0.2342239555365493</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>80976</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64511</v>
+        <v>64375</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99141</v>
+        <v>97505</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.232398143296227</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1851419870417348</v>
+        <v>0.1847541943799965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2845290491659356</v>
+        <v>0.2798359201282866</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -3795,19 +3795,19 @@
         <v>55759</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42431</v>
+        <v>43462</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69219</v>
+        <v>69774</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1807710483272885</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1375610028036453</v>
+        <v>0.1409015486288731</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2244060857519593</v>
+        <v>0.226206456641642</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -3816,19 +3816,19 @@
         <v>136736</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116381</v>
+        <v>115628</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>159690</v>
+        <v>157018</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.208155862656067</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1771695511655619</v>
+        <v>0.1760225165163282</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2430993254906272</v>
+        <v>0.2390320665073087</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>106508</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88838</v>
+        <v>89677</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124214</v>
+        <v>124442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3056730097404907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2549602866403947</v>
+        <v>0.2573686913254446</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3564887036137615</v>
+        <v>0.3571424595896858</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -3866,19 +3866,19 @@
         <v>89987</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>73662</v>
+        <v>74418</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106405</v>
+        <v>105632</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2917354252434065</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2388125532487918</v>
+        <v>0.2412626612781164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.344962023543499</v>
+        <v>0.3424566341990947</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>185</v>
@@ -3887,19 +3887,19 @@
         <v>196495</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>172198</v>
+        <v>175194</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>221034</v>
+        <v>221478</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2991284068526555</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2621413383239659</v>
+        <v>0.2667012076922438</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3364854294490577</v>
+        <v>0.3371611785305391</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>208978</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>183672</v>
+        <v>183748</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>238003</v>
+        <v>238788</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1479032410622916</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1299928342842984</v>
+        <v>0.1300469281657134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1684455979679706</v>
+        <v>0.1690009476846218</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>187</v>
@@ -4012,19 +4012,19 @@
         <v>194401</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>169298</v>
+        <v>171287</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>219593</v>
+        <v>222735</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1890835001539535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1646666030508843</v>
+        <v>0.1666014484923961</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2135863522045254</v>
+        <v>0.216642291574451</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>377</v>
@@ -4033,19 +4033,19 @@
         <v>403380</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>365733</v>
+        <v>369722</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>440864</v>
+        <v>443069</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1652475087199908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1498254673504765</v>
+        <v>0.1514595334197645</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1806032249293138</v>
+        <v>0.1815066802182733</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>180884</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>156911</v>
+        <v>157886</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>209551</v>
+        <v>208575</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1280194221892574</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1110530615154223</v>
+        <v>0.1117432076906062</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1483087747479758</v>
+        <v>0.1476180621524467</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>142</v>
@@ -4083,19 +4083,19 @@
         <v>143422</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>122875</v>
+        <v>122501</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>166461</v>
+        <v>166966</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1394986458920031</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1195140853225435</v>
+        <v>0.1191498068818153</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1619069567028223</v>
+        <v>0.1623980902101156</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>309</v>
@@ -4104,19 +4104,19 @@
         <v>324306</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>290083</v>
+        <v>291691</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>360808</v>
+        <v>358610</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1328542321878992</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1188348497063353</v>
+        <v>0.1194932431781384</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1478078038677372</v>
+        <v>0.1469075090484558</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>321776</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>288317</v>
+        <v>292609</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>353773</v>
+        <v>357108</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2277352306674695</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2040546854991448</v>
+        <v>0.2070925237319438</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2503813971323889</v>
+        <v>0.2527411592970592</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>231</v>
@@ -4154,19 +4154,19 @@
         <v>233358</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>209218</v>
+        <v>207750</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>261496</v>
+        <v>261212</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2269746699976085</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2034945467583641</v>
+        <v>0.2020666374571894</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2543426039958319</v>
+        <v>0.2540659738560009</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>536</v>
@@ -4175,19 +4175,19 @@
         <v>555134</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>516480</v>
+        <v>514684</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>594729</v>
+        <v>596267</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2274148983500203</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2115800701367605</v>
+        <v>0.2108440071592385</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2436351973335705</v>
+        <v>0.2442652576090845</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>318944</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>287550</v>
+        <v>286290</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>352939</v>
+        <v>353459</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2257312525098526</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2035118863674989</v>
+        <v>0.2026204251687374</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2497909354575894</v>
+        <v>0.250158975858917</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>203</v>
@@ -4225,19 +4225,19 @@
         <v>205549</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>180039</v>
+        <v>181623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232551</v>
+        <v>232194</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1999264775775066</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1751143852101253</v>
+        <v>0.1766545940455687</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2261889986585588</v>
+        <v>0.2258418340128498</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>500</v>
@@ -4246,19 +4246,19 @@
         <v>524494</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>483693</v>
+        <v>481824</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>568340</v>
+        <v>566941</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.21486281862562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.198148365670416</v>
+        <v>0.1973828726256716</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.232824921963379</v>
+        <v>0.2322516010832107</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>382356</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>349617</v>
+        <v>345216</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>417636</v>
+        <v>415797</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.270610853571129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2474397573784887</v>
+        <v>0.2443252511749359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2955797408258279</v>
+        <v>0.2942786477362963</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>241</v>
@@ -4296,19 +4296,19 @@
         <v>251394</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>222426</v>
+        <v>223395</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>278045</v>
+        <v>281504</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2445167063789283</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.216341516286888</v>
+        <v>0.2172834932535162</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2704390323985645</v>
+        <v>0.2738032874725734</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>596</v>
@@ -4317,19 +4317,19 @@
         <v>633750</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>590753</v>
+        <v>591760</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>679944</v>
+        <v>685866</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2596205421164697</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2420066296957989</v>
+        <v>0.2424191756284461</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2785442869448874</v>
+        <v>0.2809702337774851</v>
       </c>
     </row>
     <row r="27">
